--- a/Code/Results/Cases/Case_1_180/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_180/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2592866170828501</v>
+        <v>0.08980058072094721</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1638265512374772</v>
+        <v>0.2357428958871566</v>
       </c>
       <c r="E2">
-        <v>0.1014352170565829</v>
+        <v>0.1764476944619027</v>
       </c>
       <c r="F2">
-        <v>0.5730163276270872</v>
+        <v>1.076973617857639</v>
       </c>
       <c r="G2">
-        <v>0.3158538038368093</v>
+        <v>0.5234120085514604</v>
       </c>
       <c r="H2">
-        <v>0.2690041075008835</v>
+        <v>0.6653092482492511</v>
       </c>
       <c r="I2">
-        <v>0.1953845978024269</v>
+        <v>0.4644180749061393</v>
       </c>
       <c r="J2">
-        <v>0.08878327693276589</v>
+        <v>0.1781732259086013</v>
       </c>
       <c r="K2">
-        <v>1.480452572292762</v>
+        <v>0.4648662222738267</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.426888178980569</v>
+        <v>0.2302628299391927</v>
       </c>
       <c r="N2">
-        <v>0.7802824486277729</v>
+        <v>1.414114058844788</v>
       </c>
       <c r="O2">
-        <v>1.181949718122624</v>
+        <v>2.345500929971777</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2257926152206977</v>
+        <v>0.07925633573793789</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1493605252057648</v>
+        <v>0.2329989731536841</v>
       </c>
       <c r="E3">
-        <v>0.09484908527807079</v>
+        <v>0.1757785465414408</v>
       </c>
       <c r="F3">
-        <v>0.5463786258722507</v>
+        <v>1.077810655719858</v>
       </c>
       <c r="G3">
-        <v>0.2994052502206586</v>
+        <v>0.5236240113946451</v>
       </c>
       <c r="H3">
-        <v>0.2663258512793902</v>
+        <v>0.6687894219501729</v>
       </c>
       <c r="I3">
-        <v>0.2064920181255627</v>
+        <v>0.4704798353361279</v>
       </c>
       <c r="J3">
-        <v>0.08518261775936864</v>
+        <v>0.1784696253893259</v>
       </c>
       <c r="K3">
-        <v>1.294072783000018</v>
+        <v>0.4067335996905115</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3719222461039777</v>
+        <v>0.2147663120765486</v>
       </c>
       <c r="N3">
-        <v>0.8031369933145598</v>
+        <v>1.425175941843637</v>
       </c>
       <c r="O3">
-        <v>1.141147229610041</v>
+        <v>2.352991183527308</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2052044337345649</v>
+        <v>0.07277829586345774</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1406053450706537</v>
+        <v>0.2314074388493594</v>
       </c>
       <c r="E4">
-        <v>0.09092339861323495</v>
+        <v>0.1754453535797644</v>
       </c>
       <c r="F4">
-        <v>0.5309615692948739</v>
+        <v>1.078873712327038</v>
       </c>
       <c r="G4">
-        <v>0.2899501206774318</v>
+        <v>0.5240832231223962</v>
       </c>
       <c r="H4">
-        <v>0.2650990880016479</v>
+        <v>0.6711950970807408</v>
       </c>
       <c r="I4">
-        <v>0.2136882807527778</v>
+        <v>0.4744158759863906</v>
       </c>
       <c r="J4">
-        <v>0.08310933561006451</v>
+        <v>0.1787356012624954</v>
       </c>
       <c r="K4">
-        <v>1.179498975652649</v>
+        <v>0.3709392951877533</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.338262014294564</v>
+        <v>0.2053081013343032</v>
       </c>
       <c r="N4">
-        <v>0.8180179718983958</v>
+        <v>1.432419578527814</v>
       </c>
       <c r="O4">
-        <v>1.118326006503708</v>
+        <v>2.358841841030255</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1968077310220195</v>
+        <v>0.0701376996138805</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1370678591056702</v>
+        <v>0.2307824261223743</v>
       </c>
       <c r="E5">
-        <v>0.08935204760192406</v>
+        <v>0.1753291496723755</v>
       </c>
       <c r="F5">
-        <v>0.5249044640792633</v>
+        <v>1.079445143832999</v>
       </c>
       <c r="G5">
-        <v>0.2862508881877446</v>
+        <v>0.5243531013882787</v>
       </c>
       <c r="H5">
-        <v>0.264700588181654</v>
+        <v>0.6722431083794973</v>
       </c>
       <c r="I5">
-        <v>0.2167134349912843</v>
+        <v>0.4760736975803268</v>
       </c>
       <c r="J5">
-        <v>0.08229758495956574</v>
+        <v>0.1788651299720456</v>
       </c>
       <c r="K5">
-        <v>1.13276570721041</v>
+        <v>0.356328510240985</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3245635540551888</v>
+        <v>0.2014683456156092</v>
       </c>
       <c r="N5">
-        <v>0.8242908991010083</v>
+        <v>1.435485094959763</v>
       </c>
       <c r="O5">
-        <v>1.10956233768475</v>
+        <v>2.361540929821317</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1954130191733157</v>
+        <v>0.06969919227857702</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.136482247580048</v>
+        <v>0.2306800686534132</v>
       </c>
       <c r="E6">
-        <v>0.08909280329307734</v>
+        <v>0.1753110377029614</v>
       </c>
       <c r="F6">
-        <v>0.523912004268162</v>
+        <v>1.0795483825584</v>
       </c>
       <c r="G6">
-        <v>0.2856456895084563</v>
+        <v>0.5244029122777079</v>
       </c>
       <c r="H6">
-        <v>0.264640440069499</v>
+        <v>0.6724212198243507</v>
       </c>
       <c r="I6">
-        <v>0.217221296290357</v>
+        <v>0.4763522306883483</v>
       </c>
       <c r="J6">
-        <v>0.08216475383570554</v>
+        <v>0.1788879156665857</v>
       </c>
       <c r="K6">
-        <v>1.125002793336932</v>
+        <v>0.3539009611191659</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3222899298383624</v>
+        <v>0.2008316436592352</v>
       </c>
       <c r="N6">
-        <v>0.8253449978960425</v>
+        <v>1.436000990872135</v>
       </c>
       <c r="O6">
-        <v>1.108138809204917</v>
+        <v>2.362008135566001</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2050912220628618</v>
+        <v>0.07274268657218386</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1405575166177044</v>
+        <v>0.2313989142176496</v>
       </c>
       <c r="E7">
-        <v>0.09090209355884582</v>
+        <v>0.1754437070950772</v>
       </c>
       <c r="F7">
-        <v>0.5308789817486428</v>
+        <v>1.078880858977882</v>
       </c>
       <c r="G7">
-        <v>0.289899619370857</v>
+        <v>0.5240865277533686</v>
       </c>
       <c r="H7">
-        <v>0.2650933077286908</v>
+        <v>0.6712089567929738</v>
       </c>
       <c r="I7">
-        <v>0.2137287066212332</v>
+        <v>0.4744380158757258</v>
       </c>
       <c r="J7">
-        <v>0.08309825580068519</v>
+        <v>0.1787372625012758</v>
       </c>
       <c r="K7">
-        <v>1.178868902575687</v>
+        <v>0.3707423461706014</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3380772029291279</v>
+        <v>0.2052562577940122</v>
       </c>
       <c r="N7">
-        <v>0.8181017311128294</v>
+        <v>1.432460460727103</v>
       </c>
       <c r="O7">
-        <v>1.118205677958713</v>
+        <v>2.358876966648594</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2477418891885463</v>
+        <v>0.08616584938715732</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.158811302542972</v>
+        <v>0.2347774988333953</v>
       </c>
       <c r="E8">
-        <v>0.09913896137176081</v>
+        <v>0.176200879001069</v>
       </c>
       <c r="F8">
-        <v>0.5636303460306706</v>
+        <v>1.077148347014827</v>
       </c>
       <c r="G8">
-        <v>0.3100435488734519</v>
+        <v>0.5234168165906254</v>
       </c>
       <c r="H8">
-        <v>0.2679917247040606</v>
+        <v>0.6664534622515816</v>
       </c>
       <c r="I8">
-        <v>0.1991351259857934</v>
+        <v>0.4664637453542051</v>
       </c>
       <c r="J8">
-        <v>0.08751232751259863</v>
+        <v>0.1782580064913688</v>
       </c>
       <c r="K8">
-        <v>1.416211162777216</v>
+        <v>0.4448435590948634</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4079149249974421</v>
+        <v>0.2249080231213938</v>
       </c>
       <c r="N8">
-        <v>0.7879839046664898</v>
+        <v>1.41783453853342</v>
       </c>
       <c r="O8">
-        <v>1.167402440992163</v>
+        <v>2.347823895641696</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3312577479532166</v>
+        <v>0.1124497777325786</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1956929868138957</v>
+        <v>0.2421387545218749</v>
       </c>
       <c r="E9">
-        <v>0.1162930466381482</v>
+        <v>0.1783002166000678</v>
       </c>
       <c r="F9">
-        <v>0.6358043314974964</v>
+        <v>1.078102499546816</v>
       </c>
       <c r="G9">
-        <v>0.3550482417197998</v>
+        <v>0.5247148121132739</v>
       </c>
       <c r="H9">
-        <v>0.2771612826951753</v>
+        <v>0.6592577969058624</v>
       </c>
       <c r="I9">
-        <v>0.1735944984076534</v>
+        <v>0.4525239968168213</v>
       </c>
       <c r="J9">
-        <v>0.09732873472571413</v>
+        <v>0.1779837411102747</v>
       </c>
       <c r="K9">
-        <v>1.881032926709025</v>
+        <v>0.5893204419486722</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5457725070623951</v>
+        <v>0.2638847098112151</v>
       </c>
       <c r="N9">
-        <v>0.7358621770735851</v>
+        <v>1.392730990197059</v>
       </c>
       <c r="O9">
-        <v>1.28277076478733</v>
+        <v>2.336074401960047</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3926339237616219</v>
+        <v>0.13172736167067</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2235685617789329</v>
+        <v>0.2479910794403821</v>
       </c>
       <c r="E10">
-        <v>0.1296004249001612</v>
+        <v>0.180215291054477</v>
       </c>
       <c r="F10">
-        <v>0.6944119946168215</v>
+        <v>1.081450911201543</v>
       </c>
       <c r="G10">
-        <v>0.392039124698357</v>
+        <v>0.527262159245538</v>
       </c>
       <c r="H10">
-        <v>0.2862744999202818</v>
+        <v>0.6552655214303513</v>
       </c>
       <c r="I10">
-        <v>0.1568363026154378</v>
+        <v>0.443315820082836</v>
       </c>
       <c r="J10">
-        <v>0.1053496098106592</v>
+        <v>0.1781870950429578</v>
       </c>
       <c r="K10">
-        <v>2.222900848306324</v>
+        <v>0.6949187053357377</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6479113518625397</v>
+        <v>0.292777869303805</v>
       </c>
       <c r="N10">
-        <v>0.7021001423705826</v>
+        <v>1.376461080030985</v>
       </c>
       <c r="O10">
-        <v>1.380788516948286</v>
+        <v>2.333488673414053</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4205809825843687</v>
+        <v>0.1404881067654884</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2364462809049144</v>
+        <v>0.2507489377913572</v>
       </c>
       <c r="E11">
-        <v>0.1358291447822637</v>
+        <v>0.1811670451592668</v>
       </c>
       <c r="F11">
-        <v>0.7224586592938209</v>
+        <v>1.083548000465214</v>
       </c>
       <c r="G11">
-        <v>0.4098538252700905</v>
+        <v>0.52876752139953</v>
       </c>
       <c r="H11">
-        <v>0.290995386787003</v>
+        <v>0.6537295693806868</v>
       </c>
       <c r="I11">
-        <v>0.1496781122394646</v>
+        <v>0.4393508037006297</v>
       </c>
       <c r="J11">
-        <v>0.1091978514507872</v>
+        <v>0.1783673448543652</v>
       </c>
       <c r="K11">
-        <v>2.378680983401949</v>
+        <v>0.7428310658807504</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6946346559905336</v>
+        <v>0.3059757453868741</v>
       </c>
       <c r="N11">
-        <v>0.6877950610726771</v>
+        <v>1.369529917896983</v>
       </c>
       <c r="O11">
-        <v>1.428666032272815</v>
+        <v>2.333624632018513</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4311694317283212</v>
+        <v>0.1438041159048709</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2413534143101828</v>
+        <v>0.251806920282533</v>
       </c>
       <c r="E12">
-        <v>0.138214889137739</v>
+        <v>0.1815389962202687</v>
       </c>
       <c r="F12">
-        <v>0.733293642411212</v>
+        <v>1.084424516242308</v>
       </c>
       <c r="G12">
-        <v>0.4167535977955907</v>
+        <v>0.5293874126222562</v>
       </c>
       <c r="H12">
-        <v>0.2928710063308984</v>
+        <v>0.6531881592821946</v>
       </c>
       <c r="I12">
-        <v>0.1470370197871151</v>
+        <v>0.437881523490157</v>
       </c>
       <c r="J12">
-        <v>0.1106858510150417</v>
+        <v>0.1784481994379945</v>
       </c>
       <c r="K12">
-        <v>2.437723774319949</v>
+        <v>0.7609553930879827</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7123711295233903</v>
+        <v>0.3109809864245747</v>
       </c>
       <c r="N12">
-        <v>0.6825358247660276</v>
+        <v>1.366972759930064</v>
       </c>
       <c r="O12">
-        <v>1.447304947890075</v>
+        <v>2.333864700544041</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4288887473936427</v>
+        <v>0.1430900243167628</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2402951754749267</v>
+        <v>0.2515784598201805</v>
       </c>
       <c r="E13">
-        <v>0.1376998416374455</v>
+        <v>0.1814583772607996</v>
       </c>
       <c r="F13">
-        <v>0.7309503535503978</v>
+        <v>1.084232080484398</v>
       </c>
       <c r="G13">
-        <v>0.415260576230466</v>
+        <v>0.5292516910444505</v>
       </c>
       <c r="H13">
-        <v>0.292463061437374</v>
+        <v>0.6533029737881293</v>
       </c>
       <c r="I13">
-        <v>0.1476026889434285</v>
+        <v>0.4381965278308497</v>
       </c>
       <c r="J13">
-        <v>0.1103639816960253</v>
+        <v>0.1784302259734929</v>
       </c>
       <c r="K13">
-        <v>2.425005287758893</v>
+        <v>0.7570528593564347</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7085492334984309</v>
+        <v>0.3099026899020174</v>
       </c>
       <c r="N13">
-        <v>0.6836613737779729</v>
+        <v>1.367520487767912</v>
       </c>
       <c r="O13">
-        <v>1.443267503602073</v>
+        <v>2.333804611965832</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4214519804706214</v>
+        <v>0.1407609481693157</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2368493664116471</v>
+        <v>0.2508357058657822</v>
       </c>
       <c r="E14">
-        <v>0.1360248678549389</v>
+        <v>0.1811974147244442</v>
       </c>
       <c r="F14">
-        <v>0.7233456751190772</v>
+        <v>1.083618461401372</v>
       </c>
       <c r="G14">
-        <v>0.4104183228159854</v>
+        <v>0.5288175212472765</v>
       </c>
       <c r="H14">
-        <v>0.2911479020927175</v>
+        <v>0.6536842215119805</v>
       </c>
       <c r="I14">
-        <v>0.1494594182215927</v>
+        <v>0.4392292800944455</v>
       </c>
       <c r="J14">
-        <v>0.1093196414488062</v>
+        <v>0.1783737444408615</v>
       </c>
       <c r="K14">
-        <v>2.383537335762753</v>
+        <v>0.7443225531285691</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6960929412067856</v>
+        <v>0.3063873811916409</v>
       </c>
       <c r="N14">
-        <v>0.6873591809298176</v>
+        <v>1.369318186150949</v>
       </c>
       <c r="O14">
-        <v>1.430189058148983</v>
+        <v>2.333640603742708</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4168975138887703</v>
+        <v>0.1393341199691065</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2347427669971864</v>
+        <v>0.2503825209633561</v>
       </c>
       <c r="E15">
-        <v>0.1350024801695824</v>
+        <v>0.1810390694798905</v>
       </c>
       <c r="F15">
-        <v>0.7187159630323094</v>
+        <v>1.083253328208727</v>
       </c>
       <c r="G15">
-        <v>0.4074726842409149</v>
+        <v>0.5285580709982867</v>
       </c>
       <c r="H15">
-        <v>0.2903539389947696</v>
+        <v>0.6539229828888296</v>
       </c>
       <c r="I15">
-        <v>0.1506058582555418</v>
+        <v>0.4398660621434631</v>
       </c>
       <c r="J15">
-        <v>0.1086840213485019</v>
+        <v>0.1783407879096046</v>
       </c>
       <c r="K15">
-        <v>2.358144268061579</v>
+        <v>0.7365223604066102</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6884689362319492</v>
+        <v>0.3042351196438275</v>
       </c>
       <c r="N15">
-        <v>0.6896449360189223</v>
+        <v>1.370428119513122</v>
       </c>
       <c r="O15">
-        <v>1.422245486231532</v>
+        <v>2.333564699826013</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3908081952557581</v>
+        <v>0.13115463026908</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2227311294482348</v>
+        <v>0.2478127616405743</v>
       </c>
       <c r="E16">
-        <v>0.1291970456676204</v>
+        <v>0.1801547093064748</v>
       </c>
       <c r="F16">
-        <v>0.6926082299941143</v>
+        <v>1.081325398355794</v>
       </c>
       <c r="G16">
-        <v>0.3908957486742253</v>
+        <v>0.5271707547054802</v>
       </c>
       <c r="H16">
-        <v>0.2859779917211256</v>
+        <v>0.6553715314327349</v>
       </c>
       <c r="I16">
-        <v>0.1573136931765733</v>
+        <v>0.4435794471649923</v>
       </c>
       <c r="J16">
-        <v>0.105102306529993</v>
+        <v>0.1781770792487478</v>
       </c>
       <c r="K16">
-        <v>2.212726747659417</v>
+        <v>0.6917849146053356</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6448636068939422</v>
+        <v>0.2919164221483825</v>
       </c>
       <c r="N16">
-        <v>0.7030567422865488</v>
+        <v>1.376923500758494</v>
       </c>
       <c r="O16">
-        <v>1.377728799461323</v>
+        <v>2.33350618390844</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3748112389788787</v>
+        <v>0.1261343726723823</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2154144214523654</v>
+        <v>0.2462607087642255</v>
       </c>
       <c r="E17">
-        <v>0.1256817577052409</v>
+        <v>0.1796327891360363</v>
       </c>
       <c r="F17">
-        <v>0.6769573317108808</v>
+        <v>1.080289568298618</v>
       </c>
       <c r="G17">
-        <v>0.3809873614487884</v>
+        <v>0.5264084498360972</v>
       </c>
       <c r="H17">
-        <v>0.2834444253977466</v>
+        <v>0.6563318774928888</v>
       </c>
       <c r="I17">
-        <v>0.1615497391129423</v>
+        <v>0.4459148159756334</v>
       </c>
       <c r="J17">
-        <v>0.1029575703710464</v>
+        <v>0.1780991085896275</v>
       </c>
       <c r="K17">
-        <v>2.123595042103432</v>
+        <v>0.6643071923237187</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6181838465663034</v>
+        <v>0.2843729723984936</v>
       </c>
       <c r="N17">
-        <v>0.7115586431755219</v>
+        <v>1.381028555285056</v>
       </c>
       <c r="O17">
-        <v>1.351286390292728</v>
+        <v>2.333806298306541</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3656126231696959</v>
+        <v>0.1232460464453169</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2112244400707937</v>
+        <v>0.2453770143174268</v>
       </c>
       <c r="E18">
-        <v>0.1236762219384211</v>
+        <v>0.1793401814270048</v>
       </c>
       <c r="F18">
-        <v>0.6680848286123862</v>
+        <v>1.079747810355094</v>
       </c>
       <c r="G18">
-        <v>0.3753805098386636</v>
+        <v>0.5260026117846621</v>
       </c>
       <c r="H18">
-        <v>0.2820409993614845</v>
+        <v>0.6569106164021292</v>
       </c>
       <c r="I18">
-        <v>0.1640298208802702</v>
+        <v>0.4472791262837186</v>
       </c>
       <c r="J18">
-        <v>0.1017426226049096</v>
+        <v>0.1780625218955265</v>
       </c>
       <c r="K18">
-        <v>2.072352640556034</v>
+        <v>0.6484910501146715</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6028624271469241</v>
+        <v>0.2800393026439849</v>
       </c>
       <c r="N18">
-        <v>0.7165474693959339</v>
+        <v>1.383433926732337</v>
       </c>
       <c r="O18">
-        <v>1.336384698326981</v>
+        <v>2.334102435254351</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.362498494934087</v>
+        <v>0.1222679775632969</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2098088760534438</v>
+        <v>0.2450793604810286</v>
       </c>
       <c r="E19">
-        <v>0.1229999371404062</v>
+        <v>0.1792424139055875</v>
       </c>
       <c r="F19">
-        <v>0.6651025457366941</v>
+        <v>1.079573663054092</v>
       </c>
       <c r="G19">
-        <v>0.3734976135246058</v>
+        <v>0.5258708041686901</v>
       </c>
       <c r="H19">
-        <v>0.2815749126673524</v>
+        <v>0.6571110990451814</v>
       </c>
       <c r="I19">
-        <v>0.1648769465100215</v>
+        <v>0.4477446767804318</v>
       </c>
       <c r="J19">
-        <v>0.101334403960351</v>
+        <v>0.178051553517065</v>
       </c>
       <c r="K19">
-        <v>2.055006508205025</v>
+        <v>0.6431340029042758</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5976788158849757</v>
+        <v>0.2785728857551248</v>
       </c>
       <c r="N19">
-        <v>0.7182533752598559</v>
+        <v>1.384255947007532</v>
       </c>
       <c r="O19">
-        <v>1.331390961208456</v>
+        <v>2.334223920034134</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3765138811143203</v>
+        <v>0.1266688729096046</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2161913774403672</v>
+        <v>0.2464249961989253</v>
       </c>
       <c r="E20">
-        <v>0.1260542591307434</v>
+        <v>0.1796875635282369</v>
       </c>
       <c r="F20">
-        <v>0.6786098897377855</v>
+        <v>1.0803942438204</v>
       </c>
       <c r="G20">
-        <v>0.3820325019449484</v>
+        <v>0.5264862224277209</v>
       </c>
       <c r="H20">
-        <v>0.2837085215999053</v>
+        <v>0.6562269179480467</v>
       </c>
       <c r="I20">
-        <v>0.1610942713488388</v>
+        <v>0.4456640315341542</v>
       </c>
       <c r="J20">
-        <v>0.1031839366492093</v>
+        <v>0.1781065539648594</v>
       </c>
       <c r="K20">
-        <v>2.133080700020884</v>
+        <v>0.667233459858636</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6210214188984082</v>
+        <v>0.2851754575096095</v>
       </c>
       <c r="N20">
-        <v>0.7106433356576716</v>
+        <v>1.380586985806417</v>
       </c>
       <c r="O20">
-        <v>1.354069174756773</v>
+        <v>2.333761567657149</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4236361760485892</v>
+        <v>0.1414450967769056</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2378606340624003</v>
+        <v>0.2510535013351216</v>
       </c>
       <c r="E21">
-        <v>0.1365160982345941</v>
+        <v>0.1812737528438255</v>
       </c>
       <c r="F21">
-        <v>0.7255734124444615</v>
+        <v>1.083796461100036</v>
       </c>
       <c r="G21">
-        <v>0.4118363405522558</v>
+        <v>0.5289436946492572</v>
       </c>
       <c r="H21">
-        <v>0.2915317670216382</v>
+        <v>0.6535711487220368</v>
       </c>
       <c r="I21">
-        <v>0.1489121421873021</v>
+        <v>0.4389250622240519</v>
       </c>
       <c r="J21">
-        <v>0.1096255377727431</v>
+        <v>0.17838999268902</v>
       </c>
       <c r="K21">
-        <v>2.395715940153508</v>
+        <v>0.7480622782280477</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6997504291448848</v>
+        <v>0.3074197116943722</v>
       </c>
       <c r="N21">
-        <v>0.6862687111112891</v>
+        <v>1.368788326616745</v>
       </c>
       <c r="O21">
-        <v>1.434016411135133</v>
+        <v>2.333683659717309</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4544662491372833</v>
+        <v>0.1510933884389942</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2522023901959329</v>
+        <v>0.2541579598010202</v>
       </c>
       <c r="E22">
-        <v>0.1435122134270728</v>
+        <v>0.1823776766767402</v>
       </c>
       <c r="F22">
-        <v>0.7575236618339005</v>
+        <v>1.086500198831203</v>
       </c>
       <c r="G22">
-        <v>0.4322169197366179</v>
+        <v>0.5308403225050853</v>
       </c>
       <c r="H22">
-        <v>0.29715983777605</v>
+        <v>0.6520698626382426</v>
       </c>
       <c r="I22">
-        <v>0.1413571828862601</v>
+        <v>0.4347083571997103</v>
       </c>
       <c r="J22">
-        <v>0.1140158020055964</v>
+        <v>0.1786486573209203</v>
       </c>
       <c r="K22">
-        <v>2.567675225477984</v>
+        <v>0.8007770729983292</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7514602855994426</v>
+        <v>0.3220011429462559</v>
       </c>
       <c r="N22">
-        <v>0.6712613613252785</v>
+        <v>1.361470760574974</v>
       </c>
       <c r="O22">
-        <v>1.489250109023118</v>
+        <v>2.334731900944263</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4380080701837414</v>
+        <v>0.1459448004369648</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2445306935693878</v>
+        <v>0.2524938163429482</v>
       </c>
       <c r="E23">
-        <v>0.1397630838546711</v>
+        <v>0.1817823524198765</v>
       </c>
       <c r="F23">
-        <v>0.7403509941686082</v>
+        <v>1.085013268587517</v>
       </c>
       <c r="G23">
-        <v>0.4212528107645994</v>
+        <v>0.5298014707661736</v>
       </c>
       <c r="H23">
-        <v>0.2941070919323181</v>
+        <v>0.6528496996792228</v>
       </c>
       <c r="I23">
-        <v>0.145351275750464</v>
+        <v>0.4369417268238642</v>
       </c>
       <c r="J23">
-        <v>0.1116554226634179</v>
+        <v>0.1785038915677148</v>
       </c>
       <c r="K23">
-        <v>2.475863706370433</v>
+        <v>0.7726527599850783</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7238362529368629</v>
+        <v>0.3142148775864797</v>
       </c>
       <c r="N23">
-        <v>0.6791844515212091</v>
+        <v>1.365340299308691</v>
       </c>
       <c r="O23">
-        <v>1.459485431594914</v>
+        <v>2.334071899119067</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3757441221881663</v>
+        <v>0.1264272319173614</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2158400644428298</v>
+        <v>0.2463506950497987</v>
       </c>
       <c r="E24">
-        <v>0.1258858032535457</v>
+        <v>0.1796627768130783</v>
       </c>
       <c r="F24">
-        <v>0.6778623787672373</v>
+        <v>1.080346752566513</v>
       </c>
       <c r="G24">
-        <v>0.3815597156848298</v>
+        <v>0.5264509604503615</v>
       </c>
       <c r="H24">
-        <v>0.2835889585307285</v>
+        <v>0.6562742872238942</v>
       </c>
       <c r="I24">
-        <v>0.1613000492244785</v>
+        <v>0.4457773436629959</v>
       </c>
       <c r="J24">
-        <v>0.1030815402644478</v>
+        <v>0.1781031622441773</v>
       </c>
       <c r="K24">
-        <v>2.128792233276926</v>
+        <v>0.6659105528874818</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6197384995396717</v>
+        <v>0.2848126441247345</v>
       </c>
       <c r="N24">
-        <v>0.7110568321601107</v>
+        <v>1.380786478190736</v>
       </c>
       <c r="O24">
-        <v>1.352810144901042</v>
+        <v>2.333781405379369</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3086684230483883</v>
+        <v>0.1053444242775612</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1855875843995847</v>
+        <v>0.2400690347217846</v>
       </c>
       <c r="E25">
-        <v>0.1115358092556313</v>
+        <v>0.1776667010620194</v>
       </c>
       <c r="F25">
-        <v>0.6153548689276107</v>
+        <v>1.077379068756706</v>
       </c>
       <c r="G25">
-        <v>0.3422271084339314</v>
+        <v>0.5240839244673339</v>
       </c>
       <c r="H25">
-        <v>0.2742824047667085</v>
+        <v>0.6609768180601066</v>
       </c>
       <c r="I25">
-        <v>0.1801613220260014</v>
+        <v>0.4561134811679501</v>
       </c>
       <c r="J25">
-        <v>0.09453877007887002</v>
+        <v>0.1779867759651879</v>
       </c>
       <c r="K25">
-        <v>1.755278519847508</v>
+        <v>0.55032914720951</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5083512663817729</v>
+        <v>0.25329455586796</v>
       </c>
       <c r="N25">
-        <v>0.7491894209713408</v>
+        <v>1.399139915776814</v>
       </c>
       <c r="O25">
-        <v>1.249364223496741</v>
+        <v>2.338190788998162</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_180/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_180/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08980058072094721</v>
+        <v>0.2592866170828643</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2357428958871566</v>
+        <v>0.1638265512375199</v>
       </c>
       <c r="E2">
-        <v>0.1764476944619027</v>
+        <v>0.1014352170565687</v>
       </c>
       <c r="F2">
-        <v>1.076973617857639</v>
+        <v>0.5730163276270943</v>
       </c>
       <c r="G2">
-        <v>0.5234120085514604</v>
+        <v>0.3158538038368022</v>
       </c>
       <c r="H2">
-        <v>0.6653092482492511</v>
+        <v>0.2690041075008835</v>
       </c>
       <c r="I2">
-        <v>0.4644180749061393</v>
+        <v>0.1953845978024287</v>
       </c>
       <c r="J2">
-        <v>0.1781732259086013</v>
+        <v>0.08878327693279431</v>
       </c>
       <c r="K2">
-        <v>0.4648662222738267</v>
+        <v>1.480452572292535</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2302628299391927</v>
+        <v>0.4268881789805548</v>
       </c>
       <c r="N2">
-        <v>1.414114058844788</v>
+        <v>0.78028244862778</v>
       </c>
       <c r="O2">
-        <v>2.345500929971777</v>
+        <v>1.181949718122581</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07925633573793789</v>
+        <v>0.2257926152207119</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2329989731536841</v>
+        <v>0.1493605252059922</v>
       </c>
       <c r="E3">
-        <v>0.1757785465414408</v>
+        <v>0.09484908527807434</v>
       </c>
       <c r="F3">
-        <v>1.077810655719858</v>
+        <v>0.5463786258722365</v>
       </c>
       <c r="G3">
-        <v>0.5236240113946451</v>
+        <v>0.2994052502205946</v>
       </c>
       <c r="H3">
-        <v>0.6687894219501729</v>
+        <v>0.2663258512793902</v>
       </c>
       <c r="I3">
-        <v>0.4704798353361279</v>
+        <v>0.2064920181255601</v>
       </c>
       <c r="J3">
-        <v>0.1784696253893259</v>
+        <v>0.08518261775929048</v>
       </c>
       <c r="K3">
-        <v>0.4067335996905115</v>
+        <v>1.29407278299999</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2147663120765486</v>
+        <v>0.3719222461039564</v>
       </c>
       <c r="N3">
-        <v>1.425175941843637</v>
+        <v>0.8031369933145491</v>
       </c>
       <c r="O3">
-        <v>2.352991183527308</v>
+        <v>1.141147229610041</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.07277829586345774</v>
+        <v>0.2052044337346928</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2314074388493594</v>
+        <v>0.14060534507054</v>
       </c>
       <c r="E4">
-        <v>0.1754453535797644</v>
+        <v>0.09092339861320653</v>
       </c>
       <c r="F4">
-        <v>1.078873712327038</v>
+        <v>0.5309615692948597</v>
       </c>
       <c r="G4">
-        <v>0.5240832231223962</v>
+        <v>0.2899501206774246</v>
       </c>
       <c r="H4">
-        <v>0.6711950970807408</v>
+        <v>0.2650990880016408</v>
       </c>
       <c r="I4">
-        <v>0.4744158759863906</v>
+        <v>0.2136882807527769</v>
       </c>
       <c r="J4">
-        <v>0.1787356012624954</v>
+        <v>0.08310933560995437</v>
       </c>
       <c r="K4">
-        <v>0.3709392951877533</v>
+        <v>1.179498975652706</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2053081013343032</v>
+        <v>0.338262014294564</v>
       </c>
       <c r="N4">
-        <v>1.432419578527814</v>
+        <v>0.8180179718983318</v>
       </c>
       <c r="O4">
-        <v>2.358841841030255</v>
+        <v>1.118326006503693</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0701376996138805</v>
+        <v>0.1968077310220195</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2307824261223743</v>
+        <v>0.1370678591056276</v>
       </c>
       <c r="E5">
-        <v>0.1753291496723755</v>
+        <v>0.08935204760194182</v>
       </c>
       <c r="F5">
-        <v>1.079445143832999</v>
+        <v>0.5249044640792704</v>
       </c>
       <c r="G5">
-        <v>0.5243531013882787</v>
+        <v>0.2862508881876806</v>
       </c>
       <c r="H5">
-        <v>0.6722431083794973</v>
+        <v>0.2647005881816469</v>
       </c>
       <c r="I5">
-        <v>0.4760736975803268</v>
+        <v>0.2167134349912825</v>
       </c>
       <c r="J5">
-        <v>0.1788651299720456</v>
+        <v>0.08229758495945561</v>
       </c>
       <c r="K5">
-        <v>0.356328510240985</v>
+        <v>1.132765707210353</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2014683456156092</v>
+        <v>0.3245635540551675</v>
       </c>
       <c r="N5">
-        <v>1.435485094959763</v>
+        <v>0.8242908991010083</v>
       </c>
       <c r="O5">
-        <v>2.361540929821317</v>
+        <v>1.109562337684693</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06969919227857702</v>
+        <v>0.195413019173202</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2306800686534132</v>
+        <v>0.1364822475801901</v>
       </c>
       <c r="E6">
-        <v>0.1753110377029614</v>
+        <v>0.08909280329303471</v>
       </c>
       <c r="F6">
-        <v>1.0795483825584</v>
+        <v>0.523912004268162</v>
       </c>
       <c r="G6">
-        <v>0.5244029122777079</v>
+        <v>0.2856456895084634</v>
       </c>
       <c r="H6">
-        <v>0.6724212198243507</v>
+        <v>0.2646404400695062</v>
       </c>
       <c r="I6">
-        <v>0.4763522306883483</v>
+        <v>0.2172212962903561</v>
       </c>
       <c r="J6">
-        <v>0.1788879156665857</v>
+        <v>0.08216475383563449</v>
       </c>
       <c r="K6">
-        <v>0.3539009611191659</v>
+        <v>1.125002793336904</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2008316436592352</v>
+        <v>0.3222899298383552</v>
       </c>
       <c r="N6">
-        <v>1.436000990872135</v>
+        <v>0.825344997896039</v>
       </c>
       <c r="O6">
-        <v>2.362008135566001</v>
+        <v>1.108138809204902</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07274268657218386</v>
+        <v>0.2050912220627339</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2313989142176496</v>
+        <v>0.1405575166177044</v>
       </c>
       <c r="E7">
-        <v>0.1754437070950772</v>
+        <v>0.09090209355885293</v>
       </c>
       <c r="F7">
-        <v>1.078880858977882</v>
+        <v>0.5308789817486428</v>
       </c>
       <c r="G7">
-        <v>0.5240865277533686</v>
+        <v>0.2898996193709067</v>
       </c>
       <c r="H7">
-        <v>0.6712089567929738</v>
+        <v>0.2650933077286908</v>
       </c>
       <c r="I7">
-        <v>0.4744380158757258</v>
+        <v>0.2137287066212354</v>
       </c>
       <c r="J7">
-        <v>0.1787372625012758</v>
+        <v>0.08309825580058572</v>
       </c>
       <c r="K7">
-        <v>0.3707423461706014</v>
+        <v>1.178868902575687</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2052562577940122</v>
+        <v>0.3380772029291208</v>
       </c>
       <c r="N7">
-        <v>1.432460460727103</v>
+        <v>0.8181017311127761</v>
       </c>
       <c r="O7">
-        <v>2.358876966648594</v>
+        <v>1.118205677958727</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08616584938715732</v>
+        <v>0.24774188918866</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2347774988333953</v>
+        <v>0.1588113025428157</v>
       </c>
       <c r="E8">
-        <v>0.176200879001069</v>
+        <v>0.09913896137175371</v>
       </c>
       <c r="F8">
-        <v>1.077148347014827</v>
+        <v>0.5636303460306706</v>
       </c>
       <c r="G8">
-        <v>0.5234168165906254</v>
+        <v>0.3100435488734234</v>
       </c>
       <c r="H8">
-        <v>0.6664534622515816</v>
+        <v>0.2679917247040677</v>
       </c>
       <c r="I8">
-        <v>0.4664637453542051</v>
+        <v>0.1991351259857943</v>
       </c>
       <c r="J8">
-        <v>0.1782580064913688</v>
+        <v>0.08751232751266969</v>
       </c>
       <c r="K8">
-        <v>0.4448435590948634</v>
+        <v>1.416211162777103</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2249080231213938</v>
+        <v>0.4079149249974279</v>
       </c>
       <c r="N8">
-        <v>1.41783453853342</v>
+        <v>0.7879839046664898</v>
       </c>
       <c r="O8">
-        <v>2.347823895641696</v>
+        <v>1.167402440992163</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1124497777325786</v>
+        <v>0.3312577479530887</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2421387545218749</v>
+        <v>0.1956929868138815</v>
       </c>
       <c r="E9">
-        <v>0.1783002166000678</v>
+        <v>0.1162930466381482</v>
       </c>
       <c r="F9">
-        <v>1.078102499546816</v>
+        <v>0.6358043314975319</v>
       </c>
       <c r="G9">
-        <v>0.5247148121132739</v>
+        <v>0.355048241719885</v>
       </c>
       <c r="H9">
-        <v>0.6592577969058624</v>
+        <v>0.277161282695161</v>
       </c>
       <c r="I9">
-        <v>0.4525239968168213</v>
+        <v>0.1735944984076534</v>
       </c>
       <c r="J9">
-        <v>0.1779837411102747</v>
+        <v>0.09732873472571413</v>
       </c>
       <c r="K9">
-        <v>0.5893204419486722</v>
+        <v>1.88103292670894</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2638847098112151</v>
+        <v>0.545772507062388</v>
       </c>
       <c r="N9">
-        <v>1.392730990197059</v>
+        <v>0.7358621770735994</v>
       </c>
       <c r="O9">
-        <v>2.336074401960047</v>
+        <v>1.282770764787301</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.13172736167067</v>
+        <v>0.3926339237615082</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2479910794403821</v>
+        <v>0.2235685617790892</v>
       </c>
       <c r="E10">
-        <v>0.180215291054477</v>
+        <v>0.1296004249001257</v>
       </c>
       <c r="F10">
-        <v>1.081450911201543</v>
+        <v>0.6944119946168215</v>
       </c>
       <c r="G10">
-        <v>0.527262159245538</v>
+        <v>0.3920391246984138</v>
       </c>
       <c r="H10">
-        <v>0.6552655214303513</v>
+        <v>0.2862744999202818</v>
       </c>
       <c r="I10">
-        <v>0.443315820082836</v>
+        <v>0.1568363026154347</v>
       </c>
       <c r="J10">
-        <v>0.1781870950429578</v>
+        <v>0.1053496098106308</v>
       </c>
       <c r="K10">
-        <v>0.6949187053357377</v>
+        <v>2.222900848306324</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.292777869303805</v>
+        <v>0.6479113518625397</v>
       </c>
       <c r="N10">
-        <v>1.376461080030985</v>
+        <v>0.7021001423706323</v>
       </c>
       <c r="O10">
-        <v>2.333488673414053</v>
+        <v>1.380788516948314</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1404881067654884</v>
+        <v>0.4205809825843687</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2507489377913572</v>
+        <v>0.2364462809049144</v>
       </c>
       <c r="E11">
-        <v>0.1811670451592668</v>
+        <v>0.1358291447823063</v>
       </c>
       <c r="F11">
-        <v>1.083548000465214</v>
+        <v>0.7224586592938209</v>
       </c>
       <c r="G11">
-        <v>0.52876752139953</v>
+        <v>0.4098538252700905</v>
       </c>
       <c r="H11">
-        <v>0.6537295693806868</v>
+        <v>0.290995386787003</v>
       </c>
       <c r="I11">
-        <v>0.4393508037006297</v>
+        <v>0.1496781122394815</v>
       </c>
       <c r="J11">
-        <v>0.1783673448543652</v>
+        <v>0.1091978514507659</v>
       </c>
       <c r="K11">
-        <v>0.7428310658807504</v>
+        <v>2.378680983401921</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3059757453868741</v>
+        <v>0.6946346559905479</v>
       </c>
       <c r="N11">
-        <v>1.369529917896983</v>
+        <v>0.6877950610726842</v>
       </c>
       <c r="O11">
-        <v>2.333624632018513</v>
+        <v>1.428666032272787</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1438041159048709</v>
+        <v>0.4311694317284349</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.251806920282533</v>
+        <v>0.2413534143103249</v>
       </c>
       <c r="E12">
-        <v>0.1815389962202687</v>
+        <v>0.1382148891377319</v>
       </c>
       <c r="F12">
-        <v>1.084424516242308</v>
+        <v>0.733293642411212</v>
       </c>
       <c r="G12">
-        <v>0.5293874126222562</v>
+        <v>0.4167535977955907</v>
       </c>
       <c r="H12">
-        <v>0.6531881592821946</v>
+        <v>0.292871006331012</v>
       </c>
       <c r="I12">
-        <v>0.437881523490157</v>
+        <v>0.1470370197871009</v>
       </c>
       <c r="J12">
-        <v>0.1784481994379945</v>
+        <v>0.1106858510151056</v>
       </c>
       <c r="K12">
-        <v>0.7609553930879827</v>
+        <v>2.437723774319949</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3109809864245747</v>
+        <v>0.7123711295233903</v>
       </c>
       <c r="N12">
-        <v>1.366972759930064</v>
+        <v>0.6825358247660276</v>
       </c>
       <c r="O12">
-        <v>2.333864700544041</v>
+        <v>1.447304947890046</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1430900243167628</v>
+        <v>0.4288887473936711</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2515784598201805</v>
+        <v>0.240295175474742</v>
       </c>
       <c r="E13">
-        <v>0.1814583772607996</v>
+        <v>0.1376998416374455</v>
       </c>
       <c r="F13">
-        <v>1.084232080484398</v>
+        <v>0.7309503535503978</v>
       </c>
       <c r="G13">
-        <v>0.5292516910444505</v>
+        <v>0.4152605762304944</v>
       </c>
       <c r="H13">
-        <v>0.6533029737881293</v>
+        <v>0.292463061437374</v>
       </c>
       <c r="I13">
-        <v>0.4381965278308497</v>
+        <v>0.1476026889434143</v>
       </c>
       <c r="J13">
-        <v>0.1784302259734929</v>
+        <v>0.1103639816959898</v>
       </c>
       <c r="K13">
-        <v>0.7570528593564347</v>
+        <v>2.425005287758864</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3099026899020174</v>
+        <v>0.7085492334984238</v>
       </c>
       <c r="N13">
-        <v>1.367520487767912</v>
+        <v>0.6836613737780439</v>
       </c>
       <c r="O13">
-        <v>2.333804611965832</v>
+        <v>1.443267503602129</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1407609481693157</v>
+        <v>0.4214519804706214</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2508357058657822</v>
+        <v>0.2368493664116471</v>
       </c>
       <c r="E14">
-        <v>0.1811974147244442</v>
+        <v>0.1360248678549354</v>
       </c>
       <c r="F14">
-        <v>1.083618461401372</v>
+        <v>0.7233456751190772</v>
       </c>
       <c r="G14">
-        <v>0.5288175212472765</v>
+        <v>0.4104183228159854</v>
       </c>
       <c r="H14">
-        <v>0.6536842215119805</v>
+        <v>0.2911479020927175</v>
       </c>
       <c r="I14">
-        <v>0.4392292800944455</v>
+        <v>0.1494594182215918</v>
       </c>
       <c r="J14">
-        <v>0.1783737444408615</v>
+        <v>0.1093196414488276</v>
       </c>
       <c r="K14">
-        <v>0.7443225531285691</v>
+        <v>2.383537335762753</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3063873811916409</v>
+        <v>0.6960929412067856</v>
       </c>
       <c r="N14">
-        <v>1.369318186150949</v>
+        <v>0.6873591809298105</v>
       </c>
       <c r="O14">
-        <v>2.333640603742708</v>
+        <v>1.430189058148983</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1393341199691065</v>
+        <v>0.4168975138887703</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2503825209633561</v>
+        <v>0.2347427669971864</v>
       </c>
       <c r="E15">
-        <v>0.1810390694798905</v>
+        <v>0.1350024801695682</v>
       </c>
       <c r="F15">
-        <v>1.083253328208727</v>
+        <v>0.7187159630323094</v>
       </c>
       <c r="G15">
-        <v>0.5285580709982867</v>
+        <v>0.407472684240858</v>
       </c>
       <c r="H15">
-        <v>0.6539229828888296</v>
+        <v>0.2903539389946559</v>
       </c>
       <c r="I15">
-        <v>0.4398660621434631</v>
+        <v>0.1506058582555427</v>
       </c>
       <c r="J15">
-        <v>0.1783407879096046</v>
+        <v>0.1086840213483882</v>
       </c>
       <c r="K15">
-        <v>0.7365223604066102</v>
+        <v>2.358144268061579</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3042351196438275</v>
+        <v>0.6884689362319492</v>
       </c>
       <c r="N15">
-        <v>1.370428119513122</v>
+        <v>0.6896449360189223</v>
       </c>
       <c r="O15">
-        <v>2.333564699826013</v>
+        <v>1.422245486231532</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.13115463026908</v>
+        <v>0.3908081952557723</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2478127616405743</v>
+        <v>0.222731129448249</v>
       </c>
       <c r="E16">
-        <v>0.1801547093064748</v>
+        <v>0.1291970456676239</v>
       </c>
       <c r="F16">
-        <v>1.081325398355794</v>
+        <v>0.6926082299941143</v>
       </c>
       <c r="G16">
-        <v>0.5271707547054802</v>
+        <v>0.3908957486742253</v>
       </c>
       <c r="H16">
-        <v>0.6553715314327349</v>
+        <v>0.2859779917210119</v>
       </c>
       <c r="I16">
-        <v>0.4435794471649923</v>
+        <v>0.1573136931765746</v>
       </c>
       <c r="J16">
-        <v>0.1781770792487478</v>
+        <v>0.1051023065300285</v>
       </c>
       <c r="K16">
-        <v>0.6917849146053356</v>
+        <v>2.212726747659275</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2919164221483825</v>
+        <v>0.6448636068939493</v>
       </c>
       <c r="N16">
-        <v>1.376923500758494</v>
+        <v>0.7030567422865559</v>
       </c>
       <c r="O16">
-        <v>2.33350618390844</v>
+        <v>1.377728799461266</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1261343726723823</v>
+        <v>0.3748112389789924</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2462607087642255</v>
+        <v>0.2154144214521807</v>
       </c>
       <c r="E17">
-        <v>0.1796327891360363</v>
+        <v>0.1256817577052409</v>
       </c>
       <c r="F17">
-        <v>1.080289568298618</v>
+        <v>0.6769573317108808</v>
       </c>
       <c r="G17">
-        <v>0.5264084498360972</v>
+        <v>0.3809873614488311</v>
       </c>
       <c r="H17">
-        <v>0.6563318774928888</v>
+        <v>0.2834444253978603</v>
       </c>
       <c r="I17">
-        <v>0.4459148159756334</v>
+        <v>0.1615497391129428</v>
       </c>
       <c r="J17">
-        <v>0.1780991085896275</v>
+        <v>0.1029575703710748</v>
       </c>
       <c r="K17">
-        <v>0.6643071923237187</v>
+        <v>2.123595042103346</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2843729723984936</v>
+        <v>0.618183846566275</v>
       </c>
       <c r="N17">
-        <v>1.381028555285056</v>
+        <v>0.711558643175529</v>
       </c>
       <c r="O17">
-        <v>2.333806298306541</v>
+        <v>1.351286390292728</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1232460464453169</v>
+        <v>0.3656126231697101</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2453770143174268</v>
+        <v>0.2112244400707937</v>
       </c>
       <c r="E18">
-        <v>0.1793401814270048</v>
+        <v>0.123676221938414</v>
       </c>
       <c r="F18">
-        <v>1.079747810355094</v>
+        <v>0.6680848286123933</v>
       </c>
       <c r="G18">
-        <v>0.5260026117846621</v>
+        <v>0.3753805098387204</v>
       </c>
       <c r="H18">
-        <v>0.6569106164021292</v>
+        <v>0.2820409993614845</v>
       </c>
       <c r="I18">
-        <v>0.4472791262837186</v>
+        <v>0.1640298208802706</v>
       </c>
       <c r="J18">
-        <v>0.1780625218955265</v>
+        <v>0.1017426226047959</v>
       </c>
       <c r="K18">
-        <v>0.6484910501146715</v>
+        <v>2.072352640556119</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2800393026439849</v>
+        <v>0.6028624271469027</v>
       </c>
       <c r="N18">
-        <v>1.383433926732337</v>
+        <v>0.7165474693959979</v>
       </c>
       <c r="O18">
-        <v>2.334102435254351</v>
+        <v>1.336384698327066</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1222679775632969</v>
+        <v>0.3624984949340586</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2450793604810286</v>
+        <v>0.2098088760533585</v>
       </c>
       <c r="E19">
-        <v>0.1792424139055875</v>
+        <v>0.1229999371404276</v>
       </c>
       <c r="F19">
-        <v>1.079573663054092</v>
+        <v>0.665102545736687</v>
       </c>
       <c r="G19">
-        <v>0.5258708041686901</v>
+        <v>0.3734976135246484</v>
       </c>
       <c r="H19">
-        <v>0.6571110990451814</v>
+        <v>0.2815749126673381</v>
       </c>
       <c r="I19">
-        <v>0.4477446767804318</v>
+        <v>0.1648769465100237</v>
       </c>
       <c r="J19">
-        <v>0.178051553517065</v>
+        <v>0.1013344039603865</v>
       </c>
       <c r="K19">
-        <v>0.6431340029042758</v>
+        <v>2.055006508205054</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2785728857551248</v>
+        <v>0.5976788158849899</v>
       </c>
       <c r="N19">
-        <v>1.384255947007532</v>
+        <v>0.7182533752598559</v>
       </c>
       <c r="O19">
-        <v>2.334223920034134</v>
+        <v>1.331390961208456</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1266688729096046</v>
+        <v>0.3765138811143345</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2464249961989253</v>
+        <v>0.2161913774403672</v>
       </c>
       <c r="E20">
-        <v>0.1796875635282369</v>
+        <v>0.1260542591307612</v>
       </c>
       <c r="F20">
-        <v>1.0803942438204</v>
+        <v>0.6786098897377855</v>
       </c>
       <c r="G20">
-        <v>0.5264862224277209</v>
+        <v>0.3820325019448774</v>
       </c>
       <c r="H20">
-        <v>0.6562269179480467</v>
+        <v>0.2837085215997917</v>
       </c>
       <c r="I20">
-        <v>0.4456640315341542</v>
+        <v>0.161094271348825</v>
       </c>
       <c r="J20">
-        <v>0.1781065539648594</v>
+        <v>0.1031839366491525</v>
       </c>
       <c r="K20">
-        <v>0.667233459858636</v>
+        <v>2.133080700020997</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2851754575096095</v>
+        <v>0.6210214188984153</v>
       </c>
       <c r="N20">
-        <v>1.380586985806417</v>
+        <v>0.7106433356576645</v>
       </c>
       <c r="O20">
-        <v>2.333761567657149</v>
+        <v>1.354069174756773</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1414450967769056</v>
+        <v>0.4236361760484755</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2510535013351216</v>
+        <v>0.2378606340622724</v>
       </c>
       <c r="E21">
-        <v>0.1812737528438255</v>
+        <v>0.1365160982345941</v>
       </c>
       <c r="F21">
-        <v>1.083796461100036</v>
+        <v>0.7255734124444615</v>
       </c>
       <c r="G21">
-        <v>0.5289436946492572</v>
+        <v>0.4118363405522985</v>
       </c>
       <c r="H21">
-        <v>0.6535711487220368</v>
+        <v>0.2915317670216382</v>
       </c>
       <c r="I21">
-        <v>0.4389250622240519</v>
+        <v>0.1489121421873225</v>
       </c>
       <c r="J21">
-        <v>0.17838999268902</v>
+        <v>0.1096255377727431</v>
       </c>
       <c r="K21">
-        <v>0.7480622782280477</v>
+        <v>2.395715940153508</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3074197116943722</v>
+        <v>0.6997504291448919</v>
       </c>
       <c r="N21">
-        <v>1.368788326616745</v>
+        <v>0.6862687111113033</v>
       </c>
       <c r="O21">
-        <v>2.333683659717309</v>
+        <v>1.434016411135161</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1510933884389942</v>
+        <v>0.4544662491371696</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2541579598010202</v>
+        <v>0.2522023901958619</v>
       </c>
       <c r="E22">
-        <v>0.1823776766767402</v>
+        <v>0.1435122134270692</v>
       </c>
       <c r="F22">
-        <v>1.086500198831203</v>
+        <v>0.7575236618339005</v>
       </c>
       <c r="G22">
-        <v>0.5308403225050853</v>
+        <v>0.4322169197366748</v>
       </c>
       <c r="H22">
-        <v>0.6520698626382426</v>
+        <v>0.29715983777605</v>
       </c>
       <c r="I22">
-        <v>0.4347083571997103</v>
+        <v>0.141357182886261</v>
       </c>
       <c r="J22">
-        <v>0.1786486573209203</v>
+        <v>0.114015802005639</v>
       </c>
       <c r="K22">
-        <v>0.8007770729983292</v>
+        <v>2.567675225478041</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3220011429462559</v>
+        <v>0.7514602855994426</v>
       </c>
       <c r="N22">
-        <v>1.361470760574974</v>
+        <v>0.6712613613252785</v>
       </c>
       <c r="O22">
-        <v>2.334731900944263</v>
+        <v>1.489250109023175</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1459448004369648</v>
+        <v>0.4380080701837272</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2524938163429482</v>
+        <v>0.2445306935692599</v>
       </c>
       <c r="E23">
-        <v>0.1817823524198765</v>
+        <v>0.1397630838546711</v>
       </c>
       <c r="F23">
-        <v>1.085013268587517</v>
+        <v>0.7403509941686082</v>
       </c>
       <c r="G23">
-        <v>0.5298014707661736</v>
+        <v>0.4212528107645994</v>
       </c>
       <c r="H23">
-        <v>0.6528496996792228</v>
+        <v>0.2941070919324318</v>
       </c>
       <c r="I23">
-        <v>0.4369417268238642</v>
+        <v>0.1453512757504498</v>
       </c>
       <c r="J23">
-        <v>0.1785038915677148</v>
+        <v>0.1116554226634108</v>
       </c>
       <c r="K23">
-        <v>0.7726527599850783</v>
+        <v>2.475863706370461</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3142148775864797</v>
+        <v>0.7238362529368558</v>
       </c>
       <c r="N23">
-        <v>1.365340299308691</v>
+        <v>0.679184451521202</v>
       </c>
       <c r="O23">
-        <v>2.334071899119067</v>
+        <v>1.459485431594914</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1264272319173614</v>
+        <v>0.3757441221880526</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2463506950497987</v>
+        <v>0.2158400644428156</v>
       </c>
       <c r="E24">
-        <v>0.1796627768130783</v>
+        <v>0.1258858032535315</v>
       </c>
       <c r="F24">
-        <v>1.080346752566513</v>
+        <v>0.6778623787672373</v>
       </c>
       <c r="G24">
-        <v>0.5264509604503615</v>
+        <v>0.3815597156848725</v>
       </c>
       <c r="H24">
-        <v>0.6562742872238942</v>
+        <v>0.2835889585307285</v>
       </c>
       <c r="I24">
-        <v>0.4457773436629959</v>
+        <v>0.1613000492244896</v>
       </c>
       <c r="J24">
-        <v>0.1781031622441773</v>
+        <v>0.1030815402644407</v>
       </c>
       <c r="K24">
-        <v>0.6659105528874818</v>
+        <v>2.128792233276897</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2848126441247345</v>
+        <v>0.619738499539686</v>
       </c>
       <c r="N24">
-        <v>1.380786478190736</v>
+        <v>0.7110568321601036</v>
       </c>
       <c r="O24">
-        <v>2.333781405379369</v>
+        <v>1.352810144900957</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1053444242775612</v>
+        <v>0.3086684230483883</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2400690347217846</v>
+        <v>0.185587584399542</v>
       </c>
       <c r="E25">
-        <v>0.1776667010620194</v>
+        <v>0.1115358092556313</v>
       </c>
       <c r="F25">
-        <v>1.077379068756706</v>
+        <v>0.6153548689275894</v>
       </c>
       <c r="G25">
-        <v>0.5240839244673339</v>
+        <v>0.3422271084339172</v>
       </c>
       <c r="H25">
-        <v>0.6609768180601066</v>
+        <v>0.2742824047667085</v>
       </c>
       <c r="I25">
-        <v>0.4561134811679501</v>
+        <v>0.1801613220259983</v>
       </c>
       <c r="J25">
-        <v>0.1779867759651879</v>
+        <v>0.09453877007869238</v>
       </c>
       <c r="K25">
-        <v>0.55032914720951</v>
+        <v>1.755278519847678</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.25329455586796</v>
+        <v>0.5083512663817729</v>
       </c>
       <c r="N25">
-        <v>1.399139915776814</v>
+        <v>0.7491894209713408</v>
       </c>
       <c r="O25">
-        <v>2.338190788998162</v>
+        <v>1.249364223496826</v>
       </c>
     </row>
   </sheetData>
